--- a/madoka_behold_the_another_world/Assets/DataFile/CharacterBasicSpec.xlsx
+++ b/madoka_behold_the_another_world/Assets/DataFile/CharacterBasicSpec.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>NAME_JP</t>
     <phoneticPr fontId="1"/>
@@ -337,6 +337,10 @@
   </si>
   <si>
     <t>EXP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DownDurationValue</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -690,11 +694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA11" sqref="AA11"/>
+      <selection pane="topRight" activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -725,9 +729,10 @@
     <col min="25" max="25" width="14.625" customWidth="1"/>
     <col min="26" max="26" width="13.125" customWidth="1"/>
     <col min="27" max="27" width="17.25" customWidth="1"/>
+    <col min="29" max="29" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,8 +817,11 @@
       <c r="AB1" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="AC1" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:29">
       <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
@@ -898,8 +906,11 @@
       <c r="AB2" s="2">
         <v>0</v>
       </c>
+      <c r="AC2" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -982,10 +993,13 @@
         <v>220</v>
       </c>
       <c r="AB3">
-        <v>300</v>
+        <v>100</v>
+      </c>
+      <c r="AC3">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1068,10 +1082,13 @@
         <v>150</v>
       </c>
       <c r="AB4">
-        <v>300</v>
+        <v>100</v>
+      </c>
+      <c r="AC4">
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1154,10 +1171,13 @@
         <v>200</v>
       </c>
       <c r="AB5">
-        <v>300</v>
+        <v>100</v>
+      </c>
+      <c r="AC5">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1240,10 +1260,13 @@
         <v>210</v>
       </c>
       <c r="AB6">
-        <v>300</v>
+        <v>100</v>
+      </c>
+      <c r="AC6">
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1326,10 +1349,13 @@
         <v>160</v>
       </c>
       <c r="AB7">
-        <v>300</v>
+        <v>100</v>
+      </c>
+      <c r="AC7">
+        <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1412,10 +1438,13 @@
         <v>180</v>
       </c>
       <c r="AB8">
-        <v>300</v>
+        <v>100</v>
+      </c>
+      <c r="AC8">
+        <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1498,10 +1527,13 @@
         <v>150</v>
       </c>
       <c r="AB9">
-        <v>300</v>
+        <v>100</v>
+      </c>
+      <c r="AC9">
+        <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1586,8 +1618,11 @@
       <c r="AB10">
         <v>300</v>
       </c>
+      <c r="AC10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1670,10 +1705,13 @@
         <v>200</v>
       </c>
       <c r="AB11">
-        <v>600</v>
+        <v>300</v>
+      </c>
+      <c r="AC11">
+        <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1756,10 +1794,13 @@
         <v>200</v>
       </c>
       <c r="AB12">
-        <v>300</v>
+        <v>100</v>
+      </c>
+      <c r="AC12">
+        <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1844,8 +1885,11 @@
       <c r="AB13">
         <v>400</v>
       </c>
+      <c r="AC13">
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1930,8 +1974,11 @@
       <c r="AB14">
         <v>2</v>
       </c>
+      <c r="AC14">
+        <v>5</v>
+      </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2014,10 +2061,13 @@
         <v>200</v>
       </c>
       <c r="AB15">
-        <v>1600</v>
+        <v>400</v>
+      </c>
+      <c r="AC15">
+        <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -2100,10 +2150,13 @@
         <v>180</v>
       </c>
       <c r="AB16">
-        <v>1000</v>
+        <v>300</v>
+      </c>
+      <c r="AC16">
+        <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2186,10 +2239,13 @@
         <v>160</v>
       </c>
       <c r="AB17">
-        <v>1500</v>
+        <v>300</v>
+      </c>
+      <c r="AC17">
+        <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2274,8 +2330,11 @@
       <c r="AB18">
         <v>0</v>
       </c>
+      <c r="AC18">
+        <v>20</v>
+      </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2360,8 +2419,11 @@
       <c r="AB19">
         <v>10</v>
       </c>
+      <c r="AC19">
+        <v>5</v>
+      </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2446,8 +2508,11 @@
       <c r="AB20">
         <v>10</v>
       </c>
+      <c r="AC20">
+        <v>5</v>
+      </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2531,6 +2596,9 @@
       </c>
       <c r="AB21">
         <v>100</v>
+      </c>
+      <c r="AC21">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/madoka_behold_the_another_world/Assets/DataFile/CharacterBasicSpec.xlsx
+++ b/madoka_behold_the_another_world/Assets/DataFile/CharacterBasicSpec.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\madoka_BAW\madoka_behold_the_another_world\Assets\DataFile\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="22635" windowHeight="9645"/>
   </bookViews>
@@ -347,8 +352,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +411,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -452,7 +465,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,9 +497,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,6 +532,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -693,15 +708,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC22" sqref="AC22"/>
+      <selection pane="topRight" activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -732,7 +747,7 @@
     <col min="29" max="29" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,7 +836,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
@@ -910,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -975,7 +990,7 @@
         <v>0.5</v>
       </c>
       <c r="V3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W3">
         <v>100</v>
@@ -999,7 +1014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1064,7 +1079,7 @@
         <v>0.5</v>
       </c>
       <c r="V4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W4">
         <v>100</v>
@@ -1088,7 +1103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1153,7 +1168,7 @@
         <v>0.5</v>
       </c>
       <c r="V5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W5">
         <v>100</v>
@@ -1177,7 +1192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1242,7 +1257,7 @@
         <v>0.5</v>
       </c>
       <c r="V6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W6">
         <v>100</v>
@@ -1266,7 +1281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1331,7 +1346,7 @@
         <v>0.5</v>
       </c>
       <c r="V7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W7">
         <v>100</v>
@@ -1355,7 +1370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1420,7 +1435,7 @@
         <v>0.5</v>
       </c>
       <c r="V8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W8">
         <v>100</v>
@@ -1444,7 +1459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1509,7 +1524,7 @@
         <v>0.5</v>
       </c>
       <c r="V9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W9">
         <v>100</v>
@@ -1533,7 +1548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1598,7 +1613,7 @@
         <v>0.5</v>
       </c>
       <c r="V10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W10">
         <v>100</v>
@@ -1622,7 +1637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1687,7 +1702,7 @@
         <v>0.5</v>
       </c>
       <c r="V11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W11">
         <v>100</v>
@@ -1711,7 +1726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1776,7 +1791,7 @@
         <v>0.5</v>
       </c>
       <c r="V12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W12">
         <v>100</v>
@@ -1800,7 +1815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1865,7 +1880,7 @@
         <v>0.5</v>
       </c>
       <c r="V13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W13">
         <v>100</v>
@@ -1889,7 +1904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1954,7 +1969,7 @@
         <v>0.5</v>
       </c>
       <c r="V14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W14">
         <v>100</v>
@@ -1978,7 +1993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2043,7 +2058,7 @@
         <v>0.5</v>
       </c>
       <c r="V15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W15">
         <v>100</v>
@@ -2067,7 +2082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -2132,7 +2147,7 @@
         <v>0.5</v>
       </c>
       <c r="V16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W16">
         <v>100</v>
@@ -2156,7 +2171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2221,7 +2236,7 @@
         <v>0.5</v>
       </c>
       <c r="V17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W17">
         <v>100</v>
@@ -2245,7 +2260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2310,7 +2325,7 @@
         <v>0.5</v>
       </c>
       <c r="V18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W18">
         <v>100</v>
@@ -2334,7 +2349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2399,7 +2414,7 @@
         <v>0.5</v>
       </c>
       <c r="V19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W19">
         <v>100</v>
@@ -2423,7 +2438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2488,7 +2503,7 @@
         <v>0.5</v>
       </c>
       <c r="V20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W20">
         <v>100</v>
@@ -2512,7 +2527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2577,7 +2592,7 @@
         <v>0.5</v>
       </c>
       <c r="V21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W21">
         <v>100</v>
@@ -2604,5 +2619,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/madoka_behold_the_another_world/Assets/DataFile/CharacterBasicSpec.xlsx
+++ b/madoka_behold_the_another_world/Assets/DataFile/CharacterBasicSpec.xlsx
@@ -712,8 +712,8 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W14" sqref="W14"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -960,7 +960,7 @@
         <v>0.5</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -1049,7 +1049,7 @@
         <v>0.5</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -1138,7 +1138,7 @@
         <v>0.5</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -1227,7 +1227,7 @@
         <v>0.5</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -1316,7 +1316,7 @@
         <v>0.5</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -1405,7 +1405,7 @@
         <v>0.5</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -1494,7 +1494,7 @@
         <v>0.5</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1583,7 +1583,7 @@
         <v>0.5</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -1672,7 +1672,7 @@
         <v>0.5</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -1761,7 +1761,7 @@
         <v>0.5</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>0.5</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1939,7 +1939,7 @@
         <v>0.5</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -2028,7 +2028,7 @@
         <v>0.5</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -2117,7 +2117,7 @@
         <v>0.5</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -2206,7 +2206,7 @@
         <v>0.5</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -2295,7 +2295,7 @@
         <v>0.5</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -2384,7 +2384,7 @@
         <v>0.5</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -2473,7 +2473,7 @@
         <v>0.5</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -2562,7 +2562,7 @@
         <v>0.5</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M21">
         <v>1</v>
